--- a/solutions/Experiment_4.xlsx
+++ b/solutions/Experiment_4.xlsx
@@ -485,31 +485,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C2" t="n">
-        <v>34243</v>
+        <v>35135</v>
       </c>
       <c r="D2" t="n">
-        <v>34243</v>
+        <v>35135.00000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>-61.84863598744045</v>
+        <v>-56.1561369748816</v>
       </c>
       <c r="F2" t="n">
-        <v>2.608899250772192</v>
+        <v>2.511293618060777</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>-6.082245818106458e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.14596332423389e-10</v>
+        <v>-4.69299266114831e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6732811317245097</v>
+        <v>0.7005581001864841</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4533074823362375</v>
+        <v>0.4907816517368992</v>
       </c>
     </row>
     <row r="3">
@@ -517,31 +517,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="C3" t="n">
-        <v>10023</v>
+        <v>18674</v>
       </c>
       <c r="D3" t="n">
-        <v>10023</v>
+        <v>18674</v>
       </c>
       <c r="E3" t="n">
-        <v>-80.07579108713239</v>
+        <v>-149.6306143599164</v>
       </c>
       <c r="F3" t="n">
-        <v>2.901636045031895</v>
+        <v>3.901062801335701</v>
       </c>
       <c r="G3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>2.614797267597169e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>1.073203748092055e-10</v>
+        <v>1.891748979687691e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7753573142562368</v>
+        <v>0.7557114104429534</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6011789647706418</v>
+        <v>0.5710997358736783</v>
       </c>
     </row>
     <row r="4">
@@ -549,31 +549,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="C4" t="n">
-        <v>36575</v>
+        <v>19113</v>
       </c>
       <c r="D4" t="n">
-        <v>36575</v>
+        <v>19113</v>
       </c>
       <c r="E4" t="n">
-        <v>-78.92374613326632</v>
+        <v>-42.80688535205927</v>
       </c>
       <c r="F4" t="n">
-        <v>2.857872385148376</v>
+        <v>2.315065141940709</v>
       </c>
       <c r="G4" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="H4" t="n">
         <v>3.637978807091713e-11</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7514772488673542</v>
+        <v>0.7838125247103329</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5647180555652456</v>
+        <v>0.6143620738927859</v>
       </c>
     </row>
     <row r="5">
@@ -581,31 +581,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>302</v>
+        <v>198</v>
       </c>
       <c r="C5" t="n">
-        <v>38185</v>
+        <v>25668</v>
       </c>
       <c r="D5" t="n">
-        <v>38185</v>
+        <v>25668.00000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>-56.70384280688003</v>
+        <v>-114.5860220055319</v>
       </c>
       <c r="F5" t="n">
-        <v>2.53063509002918</v>
+        <v>3.311376590912506</v>
       </c>
       <c r="G5" t="n">
-        <v>4.945377440890297e-12</v>
+        <v>-4.661160346586257e-12</v>
       </c>
       <c r="H5" t="n">
-        <v>3.67435859516263e-10</v>
+        <v>-3.565219230949879e-10</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7264401013501862</v>
+        <v>0.7519732392252131</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5277152208496673</v>
+        <v>0.56546375251086</v>
       </c>
     </row>
     <row r="6">
@@ -613,31 +613,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>117</v>
+        <v>339</v>
       </c>
       <c r="C6" t="n">
-        <v>15867</v>
+        <v>43785</v>
       </c>
       <c r="D6" t="n">
-        <v>15867</v>
+        <v>43785</v>
       </c>
       <c r="E6" t="n">
-        <v>-71.35961659937936</v>
+        <v>-49.36280109813936</v>
       </c>
       <c r="F6" t="n">
-        <v>2.760610481318671</v>
+        <v>2.41390409526023</v>
       </c>
       <c r="G6" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>5.428546501207165e-12</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>3.80168785341084e-10</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8031397702647632</v>
+        <v>0.7587167761357193</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6450334905809374</v>
+        <v>0.5756511463897789</v>
       </c>
     </row>
     <row r="7">
@@ -645,31 +645,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="C7" t="n">
-        <v>60182</v>
+        <v>9944</v>
       </c>
       <c r="D7" t="n">
-        <v>60181.99999999999</v>
+        <v>9944.000000000002</v>
       </c>
       <c r="E7" t="n">
-        <v>-68.28915698778567</v>
+        <v>-62.26097399370548</v>
       </c>
       <c r="F7" t="n">
-        <v>2.69553005617416</v>
+        <v>2.583455057448763</v>
       </c>
       <c r="G7" t="n">
-        <v>1.466560206608847e-11</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H7" t="n">
-        <v>1.047737896442413e-09</v>
+        <v>-3.984723662142642e-11</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7916146562295909</v>
+        <v>0.7632733822818704</v>
       </c>
       <c r="J7" t="n">
-        <v>0.626653763957491</v>
+        <v>0.5825862561000077</v>
       </c>
     </row>
     <row r="8">
@@ -677,31 +677,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>405</v>
+        <v>201</v>
       </c>
       <c r="C8" t="n">
-        <v>51166</v>
+        <v>25141</v>
       </c>
       <c r="D8" t="n">
-        <v>51166.00000000001</v>
+        <v>25140.99999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-46.50915302917288</v>
+        <v>-75.62266590533423</v>
       </c>
       <c r="F8" t="n">
-        <v>2.37537180104564</v>
+        <v>2.766693357586735</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.252776074688882e-12</v>
+        <v>3.979039320256561e-12</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.82032191939652e-10</v>
+        <v>2.964952727779746e-10</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7605150484852766</v>
+        <v>0.7179042811219329</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5783831389725644</v>
+        <v>0.5153865568531935</v>
       </c>
     </row>
     <row r="9">
@@ -709,31 +709,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373</v>
+        <v>216</v>
       </c>
       <c r="C9" t="n">
-        <v>47387</v>
+        <v>27693</v>
       </c>
       <c r="D9" t="n">
-        <v>47387.00000000001</v>
+        <v>27693</v>
       </c>
       <c r="E9" t="n">
-        <v>-83.50818248907257</v>
+        <v>-91.70492177205722</v>
       </c>
       <c r="F9" t="n">
-        <v>2.882673325077965</v>
+        <v>3.008313052739985</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.182343112304807e-11</v>
+        <v>-5.229594535194337e-12</v>
       </c>
       <c r="H9" t="n">
-        <v>-8.149072527885437e-10</v>
+        <v>-3.856257535517216e-10</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7439762781640217</v>
+        <v>0.7729014919596512</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5535007024707916</v>
+        <v>0.5973767162734563</v>
       </c>
     </row>
     <row r="10">
@@ -741,31 +741,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="C10" t="n">
-        <v>42595</v>
+        <v>31814</v>
       </c>
       <c r="D10" t="n">
-        <v>42595</v>
+        <v>31813.99999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>-68.55099683495662</v>
+        <v>-54.80761155938973</v>
       </c>
       <c r="F10" t="n">
-        <v>2.681249260083629</v>
+        <v>2.482480989877915</v>
       </c>
       <c r="G10" t="n">
-        <v>4.831690603168681e-12</v>
+        <v>3.410605131648481e-12</v>
       </c>
       <c r="H10" t="n">
-        <v>3.710738383233547e-10</v>
+        <v>2.401066012680531e-10</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7700486569016268</v>
+        <v>0.7998376757030463</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5929749339959987</v>
+        <v>0.6397403074740509</v>
       </c>
     </row>
     <row r="11">
@@ -773,31 +773,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>497</v>
+        <v>253</v>
       </c>
       <c r="C11" t="n">
-        <v>64180</v>
+        <v>31088</v>
       </c>
       <c r="D11" t="n">
-        <v>64179.99999999999</v>
+        <v>31088</v>
       </c>
       <c r="E11" t="n">
-        <v>-57.00015440827707</v>
+        <v>-53.96953381597692</v>
       </c>
       <c r="F11" t="n">
-        <v>2.512945881642727</v>
+        <v>2.477973640642565</v>
       </c>
       <c r="G11" t="n">
-        <v>1.014655026665423e-11</v>
+        <v>2.685851541173179e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>7.494236342608929e-10</v>
+        <v>2.000888343900442e-10</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7424640370309276</v>
+        <v>0.7428014592888783</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5512528462842615</v>
+        <v>0.5517540079216841</v>
       </c>
     </row>
     <row r="12">
@@ -805,31 +805,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>494</v>
+        <v>194</v>
       </c>
       <c r="C12" t="n">
-        <v>61749</v>
+        <v>23296</v>
       </c>
       <c r="D12" t="n">
-        <v>61748.99999999999</v>
+        <v>23296</v>
       </c>
       <c r="E12" t="n">
-        <v>-38.22371499408055</v>
+        <v>-56.45047448086703</v>
       </c>
       <c r="F12" t="n">
-        <v>2.233436241955454</v>
+        <v>2.472914437814153</v>
       </c>
       <c r="G12" t="n">
-        <v>5.087485988042317e-12</v>
+        <v>2.884803507186007e-12</v>
       </c>
       <c r="H12" t="n">
-        <v>3.601599019020796e-10</v>
+        <v>2.019078237935901e-10</v>
       </c>
       <c r="I12" t="n">
-        <v>0.746540453500609</v>
+        <v>0.7604044911476023</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5573226487128959</v>
+        <v>0.5782149901574418</v>
       </c>
     </row>
     <row r="13">
@@ -837,31 +837,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>287</v>
+        <v>446</v>
       </c>
       <c r="C13" t="n">
-        <v>36098</v>
+        <v>58562</v>
       </c>
       <c r="D13" t="n">
-        <v>36098</v>
+        <v>58562</v>
       </c>
       <c r="E13" t="n">
-        <v>-57.32871106074539</v>
+        <v>-80.00964621542798</v>
       </c>
       <c r="F13" t="n">
-        <v>2.5175500658443</v>
+        <v>2.869600895535757</v>
       </c>
       <c r="G13" t="n">
-        <v>5.002220859751105e-12</v>
+        <v>2.160049916710705e-12</v>
       </c>
       <c r="H13" t="n">
-        <v>3.67435859516263e-10</v>
+        <v>1.455191522836685e-10</v>
       </c>
       <c r="I13" t="n">
-        <v>0.777266778588739</v>
+        <v>0.7670061063612736</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6041436450977172</v>
+        <v>0.5882983671954797</v>
       </c>
     </row>
     <row r="14">
@@ -869,31 +869,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="C14" t="n">
-        <v>10517</v>
+        <v>29156</v>
       </c>
       <c r="D14" t="n">
-        <v>10517</v>
+        <v>29155.99999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>-36.46677684549536</v>
+        <v>-45.63143965903069</v>
       </c>
       <c r="F14" t="n">
-        <v>2.236303924061361</v>
+        <v>2.349221521596425</v>
       </c>
       <c r="G14" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>4.490630090003833e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>1.002717908704653e-10</v>
+        <v>3.055902197957039e-10</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8035614651395802</v>
+        <v>0.7310677599896276</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6457110282572653</v>
+        <v>0.5344600696962503</v>
       </c>
     </row>
     <row r="15">
@@ -901,31 +901,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427</v>
+        <v>293</v>
       </c>
       <c r="C15" t="n">
-        <v>53747</v>
+        <v>39432</v>
       </c>
       <c r="D15" t="n">
-        <v>53747</v>
+        <v>39431.99999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>-54.38315447385027</v>
+        <v>-70.96562546231692</v>
       </c>
       <c r="F15" t="n">
-        <v>2.456392639316208</v>
+        <v>2.739862984416489</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>8.185452315956354e-12</v>
       </c>
       <c r="H15" t="n">
-        <v>2.91038304567337e-11</v>
+        <v>6.220943760126829e-10</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7626199063568375</v>
+        <v>0.7953064940555132</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5815891215717116</v>
+        <v>0.6325124194868716</v>
       </c>
     </row>
     <row r="16">
@@ -933,31 +933,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="C16" t="n">
-        <v>26498</v>
+        <v>38605</v>
       </c>
       <c r="D16" t="n">
-        <v>26498</v>
+        <v>38605</v>
       </c>
       <c r="E16" t="n">
-        <v>-65.84397325796789</v>
+        <v>-77.05291784632058</v>
       </c>
       <c r="F16" t="n">
-        <v>2.62079906414281</v>
+        <v>2.817431391143748</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>2.245315045001917e-12</v>
       </c>
       <c r="H16" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>1.673470251262188e-10</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7605350524941296</v>
+        <v>0.758720486641083</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5784135660722495</v>
+        <v>0.5756567768488805</v>
       </c>
     </row>
     <row r="17">
@@ -965,31 +965,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>381</v>
+        <v>466</v>
       </c>
       <c r="C17" t="n">
-        <v>47714</v>
+        <v>58473</v>
       </c>
       <c r="D17" t="n">
-        <v>47714</v>
+        <v>58472.99999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>-54.7081221715132</v>
+        <v>-47.73747881291418</v>
       </c>
       <c r="F17" t="n">
-        <v>2.49500671618555</v>
+        <v>2.372612948673408</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.064304448547773e-12</v>
+        <v>7.389644451905042e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.16504156216979e-10</v>
+        <v>5.529727786779404e-10</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7134127611843658</v>
+        <v>0.7620496022498787</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5089577678206996</v>
+        <v>0.5807195962891984</v>
       </c>
     </row>
     <row r="18">
@@ -997,31 +997,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83</v>
+        <v>380</v>
       </c>
       <c r="C18" t="n">
-        <v>10582</v>
+        <v>47758</v>
       </c>
       <c r="D18" t="n">
-        <v>10582</v>
+        <v>47758</v>
       </c>
       <c r="E18" t="n">
-        <v>-65.11411411411416</v>
+        <v>-47.75466679028138</v>
       </c>
       <c r="F18" t="n">
-        <v>2.653356260825141</v>
+        <v>2.40265305797692</v>
       </c>
       <c r="G18" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>2.501110429875553e-12</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>2.000888343900442e-10</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7992247301895832</v>
+        <v>0.725164723309746</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6387601693466122</v>
+        <v>0.5258638759329001</v>
       </c>
     </row>
     <row r="19">
@@ -1029,31 +1029,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="C19" t="n">
-        <v>36739</v>
+        <v>40752</v>
       </c>
       <c r="D19" t="n">
-        <v>36739</v>
+        <v>40751.99999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>-56.1510474188039</v>
+        <v>-43.95276058911934</v>
       </c>
       <c r="F19" t="n">
-        <v>2.511949056953212</v>
+        <v>2.286535255913654</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.764366844436154e-12</v>
+        <v>7.290168468898628e-12</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.984030965715647e-10</v>
+        <v>6.120899342931807e-10</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7663306901403585</v>
+        <v>0.798081081281818</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5872627266509962</v>
+        <v>0.6369334122999537</v>
       </c>
     </row>
     <row r="20">
@@ -1061,31 +1061,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>496</v>
+        <v>402</v>
       </c>
       <c r="C20" t="n">
-        <v>62846</v>
+        <v>51645</v>
       </c>
       <c r="D20" t="n">
-        <v>62845.99999999999</v>
+        <v>51645</v>
       </c>
       <c r="E20" t="n">
-        <v>-54.54980364085468</v>
+        <v>-67.12871052697659</v>
       </c>
       <c r="F20" t="n">
-        <v>2.472979661271494</v>
+        <v>2.664726231254053</v>
       </c>
       <c r="G20" t="n">
-        <v>4.604316927725449e-12</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="H20" t="n">
-        <v>3.346940502524376e-10</v>
+        <v>5.820766091346741e-11</v>
       </c>
       <c r="I20" t="n">
-        <v>0.757764018851789</v>
+        <v>0.7656114480898879</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5742063082664157</v>
+        <v>0.5861608894462933</v>
       </c>
     </row>
     <row r="21">
@@ -1093,31 +1093,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="C21" t="n">
-        <v>41426</v>
+        <v>53709</v>
       </c>
       <c r="D21" t="n">
-        <v>41426</v>
+        <v>53709</v>
       </c>
       <c r="E21" t="n">
-        <v>-84.57826454095655</v>
+        <v>-73.82844108078575</v>
       </c>
       <c r="F21" t="n">
-        <v>2.900933699835074</v>
+        <v>2.776742641626944</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.671640686457977e-12</v>
+        <v>3.410605131648481e-12</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.746229827404022e-10</v>
+        <v>2.328306436538696e-10</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7679461068540245</v>
+        <v>0.7256516767131069</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5897412230322543</v>
+        <v>0.5265703559165416</v>
       </c>
     </row>
     <row r="22">
@@ -1125,31 +1125,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>495</v>
+        <v>163</v>
       </c>
       <c r="C22" t="n">
-        <v>64757</v>
+        <v>21257</v>
       </c>
       <c r="D22" t="n">
-        <v>64757</v>
+        <v>21257</v>
       </c>
       <c r="E22" t="n">
-        <v>-74.84125326129541</v>
+        <v>-75.17292161583296</v>
       </c>
       <c r="F22" t="n">
-        <v>2.792041587525128</v>
+        <v>2.807253600015144</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.586375558166765e-12</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.818989403545856e-10</v>
+        <v>-1.091393642127514e-10</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7890174065185503</v>
+        <v>0.7806095302066125</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6225484677892601</v>
+        <v>0.6093512386493851</v>
       </c>
     </row>
     <row r="23">
@@ -1157,31 +1157,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C23" t="n">
-        <v>14734</v>
+        <v>11616</v>
       </c>
       <c r="D23" t="n">
-        <v>14734</v>
+        <v>11616</v>
       </c>
       <c r="E23" t="n">
-        <v>-81.95786691662252</v>
+        <v>24.62281138701401</v>
       </c>
       <c r="F23" t="n">
-        <v>2.855391166042057</v>
+        <v>1.342067030293974</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.526512829121202e-14</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>3.274180926382542e-11</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8070263700347503</v>
+        <v>0.4791025839817049</v>
       </c>
       <c r="J23" t="n">
-        <v>0.651291561931467</v>
+        <v>0.2295392859779454</v>
       </c>
     </row>
     <row r="24">
@@ -1189,31 +1189,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>387</v>
+        <v>165</v>
       </c>
       <c r="C24" t="n">
-        <v>48917</v>
+        <v>20997</v>
       </c>
       <c r="D24" t="n">
-        <v>48916.99999999999</v>
+        <v>20997</v>
       </c>
       <c r="E24" t="n">
-        <v>-65.80677499314191</v>
+        <v>-55.5999631048455</v>
       </c>
       <c r="F24" t="n">
-        <v>2.615754894058653</v>
+        <v>2.503401419872179</v>
       </c>
       <c r="G24" t="n">
-        <v>1.080024958355352e-11</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H24" t="n">
-        <v>8.221832104027271e-10</v>
+        <v>5.820766091346741e-11</v>
       </c>
       <c r="I24" t="n">
-        <v>0.775312309363512</v>
+        <v>0.7380318641411941</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6011091770505824</v>
+        <v>0.5446910324877261</v>
       </c>
     </row>
     <row r="25">
@@ -1221,31 +1221,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>422</v>
+        <v>272</v>
       </c>
       <c r="C25" t="n">
-        <v>54733</v>
+        <v>33680</v>
       </c>
       <c r="D25" t="n">
-        <v>54732.99999999999</v>
+        <v>33680</v>
       </c>
       <c r="E25" t="n">
-        <v>-59.66472468291627</v>
+        <v>-66.01206112668142</v>
       </c>
       <c r="F25" t="n">
-        <v>2.578539376470287</v>
+        <v>2.629221479019163</v>
       </c>
       <c r="G25" t="n">
-        <v>1.409716787748039e-11</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04046193882823e-09</v>
+        <v>-7.275957614183426e-11</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7705732243515561</v>
+        <v>0.7223288919712892</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5937830940875517</v>
+        <v>0.5217590281764702</v>
       </c>
     </row>
     <row r="26">
@@ -1253,31 +1253,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="C26" t="n">
-        <v>18268</v>
+        <v>7940</v>
       </c>
       <c r="D26" t="n">
-        <v>18268</v>
+        <v>7939.999999999998</v>
       </c>
       <c r="E26" t="n">
-        <v>-61.91504168496652</v>
+        <v>-93.34178894914166</v>
       </c>
       <c r="F26" t="n">
-        <v>2.60526307316024</v>
+        <v>3.088074547202183</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.456079866737127e-11</v>
+        <v>1.400621840730309e-10</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7544916178871051</v>
+        <v>0.8069891090090743</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5692576014618969</v>
+        <v>0.6512314220592601</v>
       </c>
     </row>
     <row r="27">
@@ -1285,31 +1285,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C27" t="n">
-        <v>53863</v>
+        <v>52687</v>
       </c>
       <c r="D27" t="n">
-        <v>53863</v>
+        <v>52687</v>
       </c>
       <c r="E27" t="n">
-        <v>-46.96398725737826</v>
+        <v>-70.74836390858268</v>
       </c>
       <c r="F27" t="n">
-        <v>2.388156527703991</v>
+        <v>2.706105152949177</v>
       </c>
       <c r="G27" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>4.689582056016661e-12</v>
       </c>
       <c r="H27" t="n">
-        <v>2.182787284255028e-10</v>
+        <v>3.783497959375381e-10</v>
       </c>
       <c r="I27" t="n">
-        <v>0.732364539151392</v>
+        <v>0.7933243633814193</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5363578182064284</v>
+        <v>0.6293635455345328</v>
       </c>
     </row>
     <row r="28">
@@ -1317,31 +1317,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="C28" t="n">
-        <v>24193</v>
+        <v>32901</v>
       </c>
       <c r="D28" t="n">
-        <v>24193</v>
+        <v>32901.00000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>-64.55808005979696</v>
+        <v>-60.74412751677853</v>
       </c>
       <c r="F28" t="n">
-        <v>2.634893114025028</v>
+        <v>2.551539247154946</v>
       </c>
       <c r="G28" t="n">
-        <v>1.534772309241816e-12</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="H28" t="n">
-        <v>1.127773430198431e-10</v>
+        <v>-1.891748979687691e-10</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8384391818397462</v>
+        <v>0.7944590625928423</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7029802616441012</v>
+        <v>0.6311652021358976</v>
       </c>
     </row>
     <row r="29">
@@ -1349,31 +1349,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="C29" t="n">
-        <v>55195</v>
+        <v>32900</v>
       </c>
       <c r="D29" t="n">
-        <v>55195</v>
+        <v>32900</v>
       </c>
       <c r="E29" t="n">
-        <v>-91.41472470615</v>
+        <v>-93.74970250396144</v>
       </c>
       <c r="F29" t="n">
-        <v>3.031032301602584</v>
+        <v>3.034915358787091</v>
       </c>
       <c r="G29" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>3.524291969370097e-12</v>
       </c>
       <c r="H29" t="n">
-        <v>4.729372449219227e-11</v>
+        <v>2.546585164964199e-10</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7719558435442279</v>
+        <v>0.8137278253690995</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5959158243820792</v>
+        <v>0.6621529737799212</v>
       </c>
     </row>
     <row r="30">
@@ -1381,31 +1381,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C30" t="n">
-        <v>33211</v>
+        <v>28220</v>
       </c>
       <c r="D30" t="n">
-        <v>33211</v>
+        <v>28219.99999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>-60.07989121814865</v>
+        <v>-80.03224006028728</v>
       </c>
       <c r="F30" t="n">
-        <v>2.605160419893097</v>
+        <v>2.865574391437684</v>
       </c>
       <c r="G30" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>5.115907697472721e-12</v>
       </c>
       <c r="H30" t="n">
-        <v>1.309672370553017e-10</v>
+        <v>3.965396899729967e-10</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7562839194434239</v>
+        <v>0.7754957275629988</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5719653668087074</v>
+        <v>0.6013936234684644</v>
       </c>
     </row>
     <row r="31">
@@ -1413,31 +1413,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>382</v>
+        <v>251</v>
       </c>
       <c r="C31" t="n">
-        <v>50002</v>
+        <v>33600</v>
       </c>
       <c r="D31" t="n">
-        <v>50001.99999999999</v>
+        <v>33600</v>
       </c>
       <c r="E31" t="n">
-        <v>-81.77353134609467</v>
+        <v>-85.58157718861796</v>
       </c>
       <c r="F31" t="n">
-        <v>2.901099488419389</v>
+        <v>2.956891554345239</v>
       </c>
       <c r="G31" t="n">
-        <v>8.071765478234738e-12</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>5.784386303275824e-10</v>
+        <v>-1.01863406598568e-10</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7365651550091167</v>
+        <v>0.8424738567785739</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5425282275736015</v>
+        <v>0.7097621993553658</v>
       </c>
     </row>
     <row r="32">
@@ -1445,31 +1445,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="C32" t="n">
-        <v>27499</v>
+        <v>21783</v>
       </c>
       <c r="D32" t="n">
-        <v>27499</v>
+        <v>21783</v>
       </c>
       <c r="E32" t="n">
-        <v>-33.91175683504662</v>
+        <v>-61.80494929840324</v>
       </c>
       <c r="F32" t="n">
-        <v>2.170728749066145</v>
+        <v>2.596898440788701</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.121147867408581e-12</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.001332515850663e-10</v>
+        <v>-1.418811734765768e-10</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7355945368917155</v>
+        <v>0.7017597363694728</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5410993227049397</v>
+        <v>0.4924667275893498</v>
       </c>
     </row>
     <row r="33">
@@ -1477,31 +1477,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="C33" t="n">
-        <v>5093</v>
+        <v>41363</v>
       </c>
       <c r="D33" t="n">
-        <v>5093.000000000002</v>
+        <v>41363</v>
       </c>
       <c r="E33" t="n">
-        <v>-118.3070658453263</v>
+        <v>-32.21609491838069</v>
       </c>
       <c r="F33" t="n">
-        <v>3.375103309441183</v>
+        <v>2.143302604349675</v>
       </c>
       <c r="G33" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>-2.444267011014745e-12</v>
       </c>
       <c r="H33" t="n">
-        <v>-8.503775461576879e-11</v>
+        <v>-2.073647920042276e-10</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9250566753230324</v>
+        <v>0.7251371201857941</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8557298525597007</v>
+        <v>0.5258238430713484</v>
       </c>
     </row>
     <row r="34">
@@ -1509,31 +1509,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>380</v>
+        <v>174</v>
       </c>
       <c r="C34" t="n">
-        <v>47353</v>
+        <v>21897</v>
       </c>
       <c r="D34" t="n">
-        <v>47353</v>
+        <v>21897</v>
       </c>
       <c r="E34" t="n">
-        <v>-61.37784347153104</v>
+        <v>-30.45927865787542</v>
       </c>
       <c r="F34" t="n">
-        <v>2.583869430014324</v>
+        <v>2.141152140329895</v>
       </c>
       <c r="G34" t="n">
         <v>-1.13686837721616e-12</v>
       </c>
       <c r="H34" t="n">
-        <v>-8.003553375601768e-11</v>
+        <v>-7.639755494892597e-11</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7444319354437273</v>
+        <v>0.715388135997599</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5541789065084964</v>
+        <v>0.5117801851261208</v>
       </c>
     </row>
     <row r="35">
@@ -1541,31 +1541,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="C35" t="n">
-        <v>16824</v>
+        <v>51342</v>
       </c>
       <c r="D35" t="n">
-        <v>16824</v>
+        <v>51341.99999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>-91.12999325027272</v>
+        <v>-72.02925549551421</v>
       </c>
       <c r="F35" t="n">
-        <v>3.073353474209115</v>
+        <v>2.737583325871979</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.216893335571513e-12</v>
+        <v>8.640199666842818e-12</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.919033820740879e-10</v>
+        <v>5.784386303275824e-10</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7237717984405792</v>
+        <v>0.816551426411361</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5238456162179088</v>
+        <v>0.6667562319744256</v>
       </c>
     </row>
     <row r="36">
@@ -1573,31 +1573,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="C36" t="n">
-        <v>29336</v>
+        <v>44257</v>
       </c>
       <c r="D36" t="n">
-        <v>29336</v>
+        <v>44257</v>
       </c>
       <c r="E36" t="n">
-        <v>-78.74941503980666</v>
+        <v>-65.86597575745387</v>
       </c>
       <c r="F36" t="n">
-        <v>2.845198678534254</v>
+        <v>2.664399110674216</v>
       </c>
       <c r="G36" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="H36" t="n">
-        <v>3.092281986027956e-11</v>
+        <v>-7.275957614183426e-11</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7964055223162452</v>
+        <v>0.731435595143168</v>
       </c>
       <c r="J36" t="n">
-        <v>0.6342617559758141</v>
+        <v>0.5349980298424413</v>
       </c>
     </row>
     <row r="37">
@@ -1605,31 +1605,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="C37" t="n">
-        <v>40087</v>
+        <v>18949</v>
       </c>
       <c r="D37" t="n">
-        <v>40087</v>
+        <v>18949</v>
       </c>
       <c r="E37" t="n">
-        <v>-41.43279436377944</v>
+        <v>-130.2548985717158</v>
       </c>
       <c r="F37" t="n">
-        <v>2.272447622390263</v>
+        <v>3.600905653642104</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.955857780762017e-12</v>
+        <v>-2.330580173293129e-12</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.146407496184111e-10</v>
+        <v>-1.673470251262188e-10</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7495392957044503</v>
+        <v>0.7924261499005266</v>
       </c>
       <c r="J37" t="n">
-        <v>0.561809155805121</v>
+        <v>0.6279392030461721</v>
       </c>
     </row>
     <row r="38">
@@ -1637,31 +1637,31 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="C38" t="n">
-        <v>53307</v>
+        <v>61950</v>
       </c>
       <c r="D38" t="n">
-        <v>53307</v>
+        <v>61949.99999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>-54.47607676324145</v>
+        <v>-47.44779176909975</v>
       </c>
       <c r="F38" t="n">
-        <v>2.470276002665935</v>
+        <v>2.389789178185046</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>7.73070496506989e-12</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.055013854056597e-10</v>
+        <v>5.966285243630409e-10</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7763749322899703</v>
+        <v>0.7179970078749788</v>
       </c>
       <c r="J38" t="n">
-        <v>0.602758035488256</v>
+        <v>0.5155197033174245</v>
       </c>
     </row>
     <row r="39">
@@ -1669,31 +1669,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>395</v>
+        <v>58</v>
       </c>
       <c r="C39" t="n">
-        <v>50194</v>
+        <v>7484</v>
       </c>
       <c r="D39" t="n">
-        <v>50193.99999999999</v>
+        <v>7484.000000000002</v>
       </c>
       <c r="E39" t="n">
-        <v>-63.02128143839967</v>
+        <v>-72.14730945784706</v>
       </c>
       <c r="F39" t="n">
-        <v>2.60946676518394</v>
+        <v>2.740381387636245</v>
       </c>
       <c r="G39" t="n">
-        <v>7.958078640513122e-12</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="H39" t="n">
-        <v>5.602487362921238e-10</v>
+        <v>-1.530224835732952e-10</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7424365874146477</v>
+        <v>0.7850432254892064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5512120863319088</v>
+        <v>0.6162928658864975</v>
       </c>
     </row>
     <row r="40">
@@ -1701,31 +1701,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="C40" t="n">
-        <v>5879</v>
+        <v>19597</v>
       </c>
       <c r="D40" t="n">
-        <v>5878.999999999998</v>
+        <v>19597</v>
       </c>
       <c r="E40" t="n">
-        <v>-228.2458148906652</v>
+        <v>-48.12512919625222</v>
       </c>
       <c r="F40" t="n">
-        <v>4.815764352249454</v>
+        <v>2.37566656863157</v>
       </c>
       <c r="G40" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="H40" t="n">
-        <v>2.660272002685815e-11</v>
+        <v>-8.731149137020111e-11</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8238121000768514</v>
+        <v>0.7830785810999958</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6786663762330321</v>
+        <v>0.6132120641775827</v>
       </c>
     </row>
     <row r="41">
@@ -1733,31 +1733,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>493</v>
+        <v>320</v>
       </c>
       <c r="C41" t="n">
-        <v>64699</v>
+        <v>40716</v>
       </c>
       <c r="D41" t="n">
-        <v>64699.00000000001</v>
+        <v>40715.99999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>-63.52510253836923</v>
+        <v>-74.74763856302864</v>
       </c>
       <c r="F41" t="n">
-        <v>2.618404023763731</v>
+        <v>2.754068956503011</v>
       </c>
       <c r="G41" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>7.30437932361383e-12</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.309672370553017e-10</v>
+        <v>5.857145879417658e-10</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7754067801494613</v>
+        <v>0.7977894313198962</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6012556747017548</v>
+        <v>0.636467976725726</v>
       </c>
     </row>
     <row r="42">
@@ -1765,31 +1765,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="C42" t="n">
-        <v>43437</v>
+        <v>47852</v>
       </c>
       <c r="D42" t="n">
-        <v>43437</v>
+        <v>47852.00000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>-56.84448147757507</v>
+        <v>-72.03414950754706</v>
       </c>
       <c r="F42" t="n">
-        <v>2.544533277080477</v>
+        <v>2.7501618736035</v>
       </c>
       <c r="G42" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>-9.578116078046151e-12</v>
       </c>
       <c r="H42" t="n">
-        <v>1.782609615474939e-10</v>
+        <v>-6.621121428906918e-10</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7519180595562048</v>
+        <v>0.7816986271071338</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5653807682867695</v>
+        <v>0.6110527436211766</v>
       </c>
     </row>
     <row r="43">
@@ -1797,31 +1797,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="C43" t="n">
-        <v>21142</v>
+        <v>30268</v>
       </c>
       <c r="D43" t="n">
-        <v>21142</v>
+        <v>30268</v>
       </c>
       <c r="E43" t="n">
-        <v>-91.04028693467167</v>
+        <v>-53.6068725132061</v>
       </c>
       <c r="F43" t="n">
-        <v>2.984785789504781</v>
+        <v>2.567406495562409</v>
       </c>
       <c r="G43" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>-6.366462912410498e-12</v>
       </c>
       <c r="H43" t="n">
-        <v>2.91038304567337e-11</v>
+        <v>-4.94765117764473e-10</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7769609290533657</v>
+        <v>0.6816170036026133</v>
       </c>
       <c r="J43" t="n">
-        <v>0.6036682852754689</v>
+        <v>0.4646017396002071</v>
       </c>
     </row>
     <row r="44">
@@ -1829,31 +1829,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>367</v>
+        <v>105</v>
       </c>
       <c r="C44" t="n">
-        <v>45833</v>
+        <v>13882</v>
       </c>
       <c r="D44" t="n">
-        <v>45833.00000000001</v>
+        <v>13882</v>
       </c>
       <c r="E44" t="n">
-        <v>-51.92294610406864</v>
+        <v>-72.39038302862829</v>
       </c>
       <c r="F44" t="n">
-        <v>2.4227577650074</v>
+        <v>2.712156320919829</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.182343112304807e-11</v>
+        <v>3.922195901395753e-12</v>
       </c>
       <c r="H44" t="n">
-        <v>-9.022187441587448e-10</v>
+        <v>3.121840563835576e-10</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7703843243359959</v>
+        <v>0.7924807749123743</v>
       </c>
       <c r="J44" t="n">
-        <v>0.593492007182632</v>
+        <v>0.6280257786057142</v>
       </c>
     </row>
     <row r="45">
@@ -1861,31 +1861,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>498</v>
+        <v>124</v>
       </c>
       <c r="C45" t="n">
-        <v>63244</v>
+        <v>15329</v>
       </c>
       <c r="D45" t="n">
-        <v>63244</v>
+        <v>15329</v>
       </c>
       <c r="E45" t="n">
-        <v>-77.82112574144418</v>
+        <v>-52.41964342283663</v>
       </c>
       <c r="F45" t="n">
-        <v>2.820220660249376</v>
+        <v>2.440088954217722</v>
       </c>
       <c r="G45" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>-2.884803507186007e-12</v>
       </c>
       <c r="H45" t="n">
-        <v>1.527951098978519e-10</v>
+        <v>-2.103206497849897e-10</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7850380822314288</v>
+        <v>0.7706032317940239</v>
       </c>
       <c r="J45" t="n">
-        <v>0.6162847905536026</v>
+        <v>0.5938293408513944</v>
       </c>
     </row>
     <row r="46">
@@ -1893,31 +1893,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="C46" t="n">
-        <v>10173</v>
+        <v>18357</v>
       </c>
       <c r="D46" t="n">
-        <v>10173</v>
+        <v>18357</v>
       </c>
       <c r="E46" t="n">
-        <v>-60.78489322737823</v>
+        <v>-71.4221412181096</v>
       </c>
       <c r="F46" t="n">
-        <v>2.540351766462823</v>
+        <v>2.703563145604782</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.810729923425242e-13</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H46" t="n">
-        <v>-6.389200279954821e-11</v>
+        <v>6.548361852765083e-11</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6923999052132671</v>
+        <v>0.7398710193960625</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4794176287393392</v>
+        <v>0.5474091253421665</v>
       </c>
     </row>
     <row r="47">
@@ -1925,31 +1925,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C47" t="n">
-        <v>36348</v>
+        <v>33550</v>
       </c>
       <c r="D47" t="n">
-        <v>36348</v>
+        <v>33550</v>
       </c>
       <c r="E47" t="n">
-        <v>-65.79578813081216</v>
+        <v>-39.13491123608593</v>
       </c>
       <c r="F47" t="n">
-        <v>2.643165269154597</v>
+        <v>2.268517299151164</v>
       </c>
       <c r="G47" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H47" t="n">
-        <v>1.818989403545856e-10</v>
+        <v>-1.728039933368564e-10</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7751388366482693</v>
+        <v>0.674314678010038</v>
       </c>
       <c r="J47" t="n">
-        <v>0.6008402160804344</v>
+        <v>0.4547002849797799</v>
       </c>
     </row>
     <row r="48">
@@ -1957,31 +1957,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="C48" t="n">
-        <v>26062</v>
+        <v>40521</v>
       </c>
       <c r="D48" t="n">
-        <v>26062</v>
+        <v>40521</v>
       </c>
       <c r="E48" t="n">
-        <v>-63.23588997342873</v>
+        <v>-79.50751714941481</v>
       </c>
       <c r="F48" t="n">
-        <v>2.608954168647346</v>
+        <v>2.84738546076666</v>
       </c>
       <c r="G48" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>1.875832822406664e-12</v>
       </c>
       <c r="H48" t="n">
-        <v>2.501110429875553e-11</v>
+        <v>1.164153218269348e-10</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8030072252772054</v>
+        <v>0.7595085371747258</v>
       </c>
       <c r="J48" t="n">
-        <v>0.6448206038473947</v>
+        <v>0.5768532180412922</v>
       </c>
     </row>
     <row r="49">
@@ -1989,31 +1989,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>211</v>
+        <v>327</v>
       </c>
       <c r="C49" t="n">
-        <v>27133</v>
+        <v>40528</v>
       </c>
       <c r="D49" t="n">
-        <v>27133</v>
+        <v>40527.99999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>-72.81508890377205</v>
+        <v>-80.17257436996174</v>
       </c>
       <c r="F49" t="n">
-        <v>2.740679979278724</v>
+        <v>2.85269187583782</v>
       </c>
       <c r="G49" t="n">
-        <v>2.245315045001917e-12</v>
+        <v>1.290345608140342e-11</v>
       </c>
       <c r="H49" t="n">
-        <v>1.818989403545856e-10</v>
+        <v>9.167706593871117e-10</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8149887284037998</v>
+        <v>0.7044418185734831</v>
       </c>
       <c r="J49" t="n">
-        <v>0.6642066274252423</v>
+        <v>0.4962382757551124</v>
       </c>
     </row>
     <row r="50">
@@ -2021,31 +2021,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C50" t="n">
-        <v>18450</v>
+        <v>14323</v>
       </c>
       <c r="D50" t="n">
-        <v>18450</v>
+        <v>14323</v>
       </c>
       <c r="E50" t="n">
-        <v>-64.8003464987878</v>
+        <v>-47.87475976796495</v>
       </c>
       <c r="F50" t="n">
-        <v>2.652762717188171</v>
+        <v>2.406121227776183</v>
       </c>
       <c r="G50" t="n">
-        <v>3.581135388230905e-12</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="H50" t="n">
-        <v>2.65572452917695e-10</v>
+        <v>1.2732925824821e-11</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8343039363276747</v>
+        <v>0.8510479758424382</v>
       </c>
       <c r="J50" t="n">
-        <v>0.696063058171853</v>
+        <v>0.7242826571855085</v>
       </c>
     </row>
     <row r="51">
@@ -2053,31 +2053,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="C51" t="n">
-        <v>12203</v>
+        <v>4903</v>
       </c>
       <c r="D51" t="n">
-        <v>12203</v>
+        <v>4903</v>
       </c>
       <c r="E51" t="n">
-        <v>-36.65347787805415</v>
+        <v>-13.73983228085849</v>
       </c>
       <c r="F51" t="n">
-        <v>2.227648763665713</v>
+        <v>1.887835285995655</v>
       </c>
       <c r="G51" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="H51" t="n">
-        <v>4.570210876408964e-11</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="I51" t="n">
-        <v>0.6813937156598634</v>
+        <v>0.8189273750654918</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4642973957407537</v>
+        <v>0.6706420456316562</v>
       </c>
     </row>
   </sheetData>
